--- a/results/matched_buildings.xlsx
+++ b/results/matched_buildings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="187">
   <si>
     <t>city</t>
   </si>
@@ -34,22 +34,544 @@
     <t>Use Class</t>
   </si>
   <si>
+    <t>Peterborough</t>
+  </si>
+  <si>
+    <t>Kenilworth</t>
+  </si>
+  <si>
+    <t>Shanklin</t>
+  </si>
+  <si>
     <t>London</t>
   </si>
   <si>
-    <t>Streatham</t>
-  </si>
-  <si>
-    <t>7 Chase Side</t>
-  </si>
-  <si>
-    <t>86–88 Mitcham Lane</t>
-  </si>
-  <si>
-    <t>N14 5BP</t>
-  </si>
-  <si>
-    <t>SW16 6NR</t>
+    <t>Beaconsfield</t>
+  </si>
+  <si>
+    <t>Southampton</t>
+  </si>
+  <si>
+    <t>Thatcham</t>
+  </si>
+  <si>
+    <t>Stonehouse</t>
+  </si>
+  <si>
+    <t>Ashford</t>
+  </si>
+  <si>
+    <t>Crawley</t>
+  </si>
+  <si>
+    <t>West Bromwich</t>
+  </si>
+  <si>
+    <t>Solihull</t>
+  </si>
+  <si>
+    <t>Cambridge</t>
+  </si>
+  <si>
+    <t>High Wycombe</t>
+  </si>
+  <si>
+    <t>Salisbury</t>
+  </si>
+  <si>
+    <t>Aldermaston, Reading</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Stow Cum Quy</t>
+  </si>
+  <si>
+    <t>Walton On Thames</t>
+  </si>
+  <si>
+    <t>Tunbridge Wells</t>
+  </si>
+  <si>
+    <t>Swindon</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t>Haslemere</t>
+  </si>
+  <si>
+    <t>Bracknell</t>
+  </si>
+  <si>
+    <t>Bristol</t>
+  </si>
+  <si>
+    <t>Kings Langley</t>
+  </si>
+  <si>
+    <t>Worcester</t>
+  </si>
+  <si>
+    <t>Coleshill</t>
+  </si>
+  <si>
+    <t>Hounslow</t>
+  </si>
+  <si>
+    <t>Thetford</t>
+  </si>
+  <si>
+    <t>Henley In Arden</t>
+  </si>
+  <si>
+    <t>Shepperton</t>
+  </si>
+  <si>
+    <t>Oxford</t>
+  </si>
+  <si>
+    <t>Kettering</t>
+  </si>
+  <si>
+    <t>Kingswinford</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Milton Keynes</t>
+  </si>
+  <si>
+    <t>Ashby De La Zouch</t>
+  </si>
+  <si>
+    <t>Portsmouth</t>
+  </si>
+  <si>
+    <t>Ware</t>
+  </si>
+  <si>
+    <t>Wimborne</t>
+  </si>
+  <si>
+    <t>Fleet</t>
+  </si>
+  <si>
+    <t>Telford</t>
+  </si>
+  <si>
+    <t>Borehamwood</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>Norwich</t>
+  </si>
+  <si>
+    <t>Petersfield</t>
+  </si>
+  <si>
+    <t>Bishops Rd</t>
+  </si>
+  <si>
+    <t>Stoneleigh Park</t>
+  </si>
+  <si>
+    <t>Landguard Manor Rd</t>
+  </si>
+  <si>
+    <t>1-2 Prince Consort Rd</t>
+  </si>
+  <si>
+    <t>Burnham Rd</t>
+  </si>
+  <si>
+    <t>Rownhams House</t>
+  </si>
+  <si>
+    <t>Stuart Tagg Sq</t>
+  </si>
+  <si>
+    <t>Stonehouse Park</t>
+  </si>
+  <si>
+    <t>South Stour Ave</t>
+  </si>
+  <si>
+    <t>32-36 Great Portland St</t>
+  </si>
+  <si>
+    <t>Schoolhouse Ln</t>
+  </si>
+  <si>
+    <t>Station Way</t>
+  </si>
+  <si>
+    <t>14 New St</t>
+  </si>
+  <si>
+    <t>Blythe Gate</t>
+  </si>
+  <si>
+    <t>31 Old Nichol St</t>
+  </si>
+  <si>
+    <t>London Rd</t>
+  </si>
+  <si>
+    <t>71-75 Desborough Rd</t>
+  </si>
+  <si>
+    <t>55-59 Gordon Sq</t>
+  </si>
+  <si>
+    <t>Basinghall Ave</t>
+  </si>
+  <si>
+    <t>16 Hanover Sq</t>
+  </si>
+  <si>
+    <t>37 Duke St</t>
+  </si>
+  <si>
+    <t>Chilmark Estate</t>
+  </si>
+  <si>
+    <t>1 Hermes St</t>
+  </si>
+  <si>
+    <t>Calleva Park</t>
+  </si>
+  <si>
+    <t>37 West St</t>
+  </si>
+  <si>
+    <t>82-89 High St</t>
+  </si>
+  <si>
+    <t>Albert Rd</t>
+  </si>
+  <si>
+    <t>Manor Rd</t>
+  </si>
+  <si>
+    <t>1-17 Calverley Park Cres</t>
+  </si>
+  <si>
+    <t>10 Curie Av</t>
+  </si>
+  <si>
+    <t>Saville Rd</t>
+  </si>
+  <si>
+    <t>High St</t>
+  </si>
+  <si>
+    <t>2 Pride Pl</t>
+  </si>
+  <si>
+    <t>Hedgehog Ln</t>
+  </si>
+  <si>
+    <t>Bagshot Rd</t>
+  </si>
+  <si>
+    <t>1 Poole St</t>
+  </si>
+  <si>
+    <t>109 S Libery Ln</t>
+  </si>
+  <si>
+    <t>Egg Farm Ln</t>
+  </si>
+  <si>
+    <t>John Comyn Dr</t>
+  </si>
+  <si>
+    <t>804 Bath Rd</t>
+  </si>
+  <si>
+    <t>10 Burrell Way</t>
+  </si>
+  <si>
+    <t>Stratford Rd</t>
+  </si>
+  <si>
+    <t>Green Ln</t>
+  </si>
+  <si>
+    <t>New Inn Hall St</t>
+  </si>
+  <si>
+    <t>Barton Rd</t>
+  </si>
+  <si>
+    <t>First Ave</t>
+  </si>
+  <si>
+    <t>67-69 Cowcross St</t>
+  </si>
+  <si>
+    <t>Holly Road</t>
+  </si>
+  <si>
+    <t>1 Cumnor Hl</t>
+  </si>
+  <si>
+    <t>6 Bramley Rd</t>
+  </si>
+  <si>
+    <t>Smisby Rd</t>
+  </si>
+  <si>
+    <t>8 Douglas Rd</t>
+  </si>
+  <si>
+    <t>Southampton Rd</t>
+  </si>
+  <si>
+    <t>Crane Mead</t>
+  </si>
+  <si>
+    <t>6 Whittle Rd</t>
+  </si>
+  <si>
+    <t>Fleet Rd</t>
+  </si>
+  <si>
+    <t>Stafford Park 13</t>
+  </si>
+  <si>
+    <t>Centennial Av</t>
+  </si>
+  <si>
+    <t>Station Rd</t>
+  </si>
+  <si>
+    <t>Majors Rd</t>
+  </si>
+  <si>
+    <t>Seebeck Pl</t>
+  </si>
+  <si>
+    <t>15–17 Haymarket</t>
+  </si>
+  <si>
+    <t>21 High Street</t>
+  </si>
+  <si>
+    <t>350 Streatham High Road</t>
+  </si>
+  <si>
+    <t>44–46 High Road</t>
+  </si>
+  <si>
+    <t>PE1 5BW</t>
+  </si>
+  <si>
+    <t>CV8 2TZ</t>
+  </si>
+  <si>
+    <t>PO37 7JB</t>
+  </si>
+  <si>
+    <t>SW7 2BZ</t>
+  </si>
+  <si>
+    <t>HP9 2SF</t>
+  </si>
+  <si>
+    <t>SO16 8LS</t>
+  </si>
+  <si>
+    <t>RG19 6HN</t>
+  </si>
+  <si>
+    <t>GL10 3UT</t>
+  </si>
+  <si>
+    <t>TN23 7RS</t>
+  </si>
+  <si>
+    <t>W1W 8QX</t>
+  </si>
+  <si>
+    <t>E1W 3HY</t>
+  </si>
+  <si>
+    <t>RH10 1HU</t>
+  </si>
+  <si>
+    <t>B70 7PQ</t>
+  </si>
+  <si>
+    <t>B90 8AE</t>
+  </si>
+  <si>
+    <t>E2 7HR</t>
+  </si>
+  <si>
+    <t>CB22 3EG</t>
+  </si>
+  <si>
+    <t>HP11 2PR</t>
+  </si>
+  <si>
+    <t>WC1H 0NU</t>
+  </si>
+  <si>
+    <t>EC2V 5DD</t>
+  </si>
+  <si>
+    <t>W1S 1HT</t>
+  </si>
+  <si>
+    <t>SP1 3HP</t>
+  </si>
+  <si>
+    <t>W1U 1LN</t>
+  </si>
+  <si>
+    <t>SP3 5DU</t>
+  </si>
+  <si>
+    <t>N1 9JN</t>
+  </si>
+  <si>
+    <t>RG7 8RA</t>
+  </si>
+  <si>
+    <t>BN1 2RE</t>
+  </si>
+  <si>
+    <t>RH10 1BP</t>
+  </si>
+  <si>
+    <t>CB5 9AR</t>
+  </si>
+  <si>
+    <t>KT12 2QF</t>
+  </si>
+  <si>
+    <t>TN1 2NB</t>
+  </si>
+  <si>
+    <t>SN1 4GB</t>
+  </si>
+  <si>
+    <t>PE3 7PS</t>
+  </si>
+  <si>
+    <t>RH10 1BZ</t>
+  </si>
+  <si>
+    <t>DE24 8QR</t>
+  </si>
+  <si>
+    <t>GU27 2PH</t>
+  </si>
+  <si>
+    <t>RG12 9SE</t>
+  </si>
+  <si>
+    <t>N1 5EB</t>
+  </si>
+  <si>
+    <t>BS3 2SZ</t>
+  </si>
+  <si>
+    <t>WD4 8LR</t>
+  </si>
+  <si>
+    <t>WR3 7NS</t>
+  </si>
+  <si>
+    <t>B46 3BP</t>
+  </si>
+  <si>
+    <t>TW5 9US</t>
+  </si>
+  <si>
+    <t>IP24 3QS</t>
+  </si>
+  <si>
+    <t>B95 6AE</t>
+  </si>
+  <si>
+    <t>TW17 8DN</t>
+  </si>
+  <si>
+    <t>OX1 2DH</t>
+  </si>
+  <si>
+    <t>NN15 6SG</t>
+  </si>
+  <si>
+    <t>DY6 7NA</t>
+  </si>
+  <si>
+    <t>EC1M 6BP</t>
+  </si>
+  <si>
+    <t>TW12 1QQ</t>
+  </si>
+  <si>
+    <t>OX2 9GG</t>
+  </si>
+  <si>
+    <t>MK1 1PT</t>
+  </si>
+  <si>
+    <t>LE65 2AB</t>
+  </si>
+  <si>
+    <t>TW3 1DA</t>
+  </si>
+  <si>
+    <t>LE65 2UZ</t>
+  </si>
+  <si>
+    <t>PO6 4PY</t>
+  </si>
+  <si>
+    <t>SG12 9PZ</t>
+  </si>
+  <si>
+    <t>BH21 7RU</t>
+  </si>
+  <si>
+    <t>GU51 3SB</t>
+  </si>
+  <si>
+    <t>TF3 3AZ</t>
+  </si>
+  <si>
+    <t>WD6 3SL</t>
+  </si>
+  <si>
+    <t>RG7 4GB</t>
+  </si>
+  <si>
+    <t>SN6 8TY</t>
+  </si>
+  <si>
+    <t>MK5 8FR</t>
+  </si>
+  <si>
+    <t>NR2 1QL</t>
+  </si>
+  <si>
+    <t>Gu323JT</t>
+  </si>
+  <si>
+    <t>SW16 6HP</t>
+  </si>
+  <si>
+    <t>N22 6BX</t>
   </si>
   <si>
     <t>E</t>
@@ -410,7 +932,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,19 +963,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>53</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="D2">
-        <v>4500</v>
+        <v>15000</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -461,19 +983,1339 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3">
+        <v>15000</v>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>15000</v>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D5">
+        <v>15000</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6">
+        <v>15000</v>
+      </c>
+      <c r="E6" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
         <v>11</v>
       </c>
-      <c r="D3">
-        <v>4000</v>
-      </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7">
+        <v>15000</v>
+      </c>
+      <c r="E7" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
         <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
+      <c r="D8">
+        <v>15000</v>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D9">
+        <v>15000</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10">
+        <v>15000</v>
+      </c>
+      <c r="E10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
+        <v>127</v>
+      </c>
+      <c r="D11">
+        <v>15000</v>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
+        <v>128</v>
+      </c>
+      <c r="D12">
+        <v>15000</v>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D13">
+        <v>15000</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14">
+        <v>15000</v>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D15">
+        <v>15000</v>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16">
+        <v>15000</v>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
+        <v>133</v>
+      </c>
+      <c r="D17">
+        <v>15000</v>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18">
+        <v>15000</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19">
+        <v>15000</v>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
+        <v>136</v>
+      </c>
+      <c r="D20">
+        <v>15000</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
+        <v>137</v>
+      </c>
+      <c r="D21">
+        <v>15000</v>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+      <c r="D22">
+        <v>15000</v>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D23">
+        <v>15000</v>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24">
+        <v>15000</v>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D25">
+        <v>15000</v>
+      </c>
+      <c r="E25" t="b">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26">
+        <v>15000</v>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D27">
+        <v>15000</v>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>15</v>
+      </c>
+      <c r="B28" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28">
+        <v>15000</v>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>23</v>
+      </c>
+      <c r="B29" t="s">
+        <v>79</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29">
+        <v>15000</v>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30">
+        <v>15000</v>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" t="s">
+        <v>147</v>
+      </c>
+      <c r="D31">
+        <v>15000</v>
+      </c>
+      <c r="E31" t="b">
+        <v>0</v>
+      </c>
+      <c r="F31" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" t="s">
+        <v>148</v>
+      </c>
+      <c r="D32">
+        <v>15000</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" t="s">
+        <v>149</v>
+      </c>
+      <c r="D33">
+        <v>15000</v>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" t="s">
+        <v>150</v>
+      </c>
+      <c r="D34">
+        <v>15000</v>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" t="s">
+        <v>151</v>
+      </c>
+      <c r="D35">
+        <v>15000</v>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" t="s">
+        <v>86</v>
+      </c>
+      <c r="C36" t="s">
+        <v>152</v>
+      </c>
+      <c r="D36">
+        <v>15000</v>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" t="s">
+        <v>153</v>
+      </c>
+      <c r="D37">
+        <v>15000</v>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>9</v>
+      </c>
+      <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>154</v>
+      </c>
+      <c r="D38">
+        <v>15000</v>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39">
+        <v>15000</v>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="B40" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40">
+        <v>15000</v>
+      </c>
+      <c r="E40" t="b">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" t="s">
+        <v>91</v>
+      </c>
+      <c r="C41" t="s">
+        <v>157</v>
+      </c>
+      <c r="D41">
+        <v>15000</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
+        <v>158</v>
+      </c>
+      <c r="D42">
+        <v>15000</v>
+      </c>
+      <c r="E42" t="b">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" t="s">
+        <v>159</v>
+      </c>
+      <c r="D43">
+        <v>15000</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" t="s">
+        <v>160</v>
+      </c>
+      <c r="D44">
+        <v>15000</v>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45">
+        <v>15000</v>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" t="s">
+        <v>162</v>
+      </c>
+      <c r="D46">
+        <v>15000</v>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" t="s">
+        <v>96</v>
+      </c>
+      <c r="C47" t="s">
+        <v>163</v>
+      </c>
+      <c r="D47">
+        <v>15000</v>
+      </c>
+      <c r="E47" t="b">
+        <v>1</v>
+      </c>
+      <c r="F47" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="s">
+        <v>164</v>
+      </c>
+      <c r="D48">
+        <v>15000</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>165</v>
+      </c>
+      <c r="D49">
+        <v>15000</v>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50">
+        <v>15000</v>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>41</v>
+      </c>
+      <c r="B51" t="s">
+        <v>100</v>
+      </c>
+      <c r="C51" t="s">
+        <v>167</v>
+      </c>
+      <c r="D51">
+        <v>15000</v>
+      </c>
+      <c r="E51" t="b">
+        <v>1</v>
+      </c>
+      <c r="F51" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" t="s">
+        <v>101</v>
+      </c>
+      <c r="C52" t="s">
+        <v>168</v>
+      </c>
+      <c r="D52">
+        <v>15000</v>
+      </c>
+      <c r="E52" t="b">
+        <v>0</v>
+      </c>
+      <c r="F52" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>169</v>
+      </c>
+      <c r="D53">
+        <v>15000</v>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>170</v>
+      </c>
+      <c r="D54">
+        <v>15000</v>
+      </c>
+      <c r="E54" t="b">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>34</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+      <c r="C55" t="s">
+        <v>171</v>
+      </c>
+      <c r="D55">
+        <v>15000</v>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56" t="s">
+        <v>103</v>
+      </c>
+      <c r="C56" t="s">
+        <v>172</v>
+      </c>
+      <c r="D56">
+        <v>15000</v>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B57" t="s">
+        <v>105</v>
+      </c>
+      <c r="C57" t="s">
+        <v>173</v>
+      </c>
+      <c r="D57">
+        <v>15000</v>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" t="s">
+        <v>106</v>
+      </c>
+      <c r="C58" t="s">
+        <v>174</v>
+      </c>
+      <c r="D58">
+        <v>15000</v>
+      </c>
+      <c r="E58" t="b">
+        <v>0</v>
+      </c>
+      <c r="F58" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" t="s">
+        <v>107</v>
+      </c>
+      <c r="C59" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59">
+        <v>15000</v>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="s">
+        <v>176</v>
+      </c>
+      <c r="D60">
+        <v>15000</v>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C61" t="s">
+        <v>177</v>
+      </c>
+      <c r="D61">
+        <v>15000</v>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>49</v>
+      </c>
+      <c r="B62" t="s">
+        <v>110</v>
+      </c>
+      <c r="C62" t="s">
+        <v>178</v>
+      </c>
+      <c r="D62">
+        <v>15000</v>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>50</v>
+      </c>
+      <c r="B63" t="s">
+        <v>111</v>
+      </c>
+      <c r="C63" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63">
+        <v>15000</v>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" t="s">
+        <v>180</v>
+      </c>
+      <c r="D64">
+        <v>15000</v>
+      </c>
+      <c r="E64" t="b">
+        <v>1</v>
+      </c>
+      <c r="F64" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B65" t="s">
+        <v>113</v>
+      </c>
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+      <c r="D65">
+        <v>15000</v>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B66" t="s">
+        <v>114</v>
+      </c>
+      <c r="C66" t="s">
+        <v>182</v>
+      </c>
+      <c r="D66">
+        <v>15000</v>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>52</v>
+      </c>
+      <c r="B67" t="s">
+        <v>115</v>
+      </c>
+      <c r="C67" t="s">
+        <v>183</v>
+      </c>
+      <c r="D67">
+        <v>15000</v>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>9</v>
+      </c>
+      <c r="B68" t="s">
+        <v>116</v>
+      </c>
+      <c r="C68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68">
+        <v>15000</v>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" t="s">
+        <v>117</v>
+      </c>
+      <c r="C69" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69">
+        <v>15000</v>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
